--- a/output_additional_column/1945.xlsx
+++ b/output_additional_column/1945.xlsx
@@ -490,7 +490,7 @@
         <v>65846</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76710678873</v>
+        <v>44703.79032607115</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>70356</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76710678873</v>
+        <v>44703.79032607115</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>62847</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76710678873</v>
+        <v>44703.79032607115</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>63285</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76710678873</v>
+        <v>44703.79032607115</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>71604</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76710678873</v>
+        <v>44703.79032607115</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>69755</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76710678873</v>
+        <v>44703.79032607115</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>45576</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76710678873</v>
+        <v>44703.79032607115</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>113734</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76710678873</v>
+        <v>44703.79032607115</v>
       </c>
     </row>
   </sheetData>
